--- a/java02 14组 数据字典.xlsx
+++ b/java02 14组 数据字典.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5c6bc22eb1eb289/qmxm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_647886AE2DD13FF6A1BEC8D753FDCD430071CF23" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F741A5B5-E029-4A0D-BC6A-7E2CD15AFDE0}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_647886AE2DD13FF6A1BEC8D753FDCD430071CF23" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{295DD7FD-6562-428D-A589-E8BDE7EC5592}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="15450" windowHeight="9982" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="397" windowWidth="13680" windowHeight="9983" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据字典" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="84">
   <si>
     <t>数据字典-王八坨子租房房屋租赁平台</t>
   </si>
@@ -163,30 +163,18 @@
     <t>用户编号，主键，自动增长</t>
   </si>
   <si>
-    <t>Uemail</t>
-  </si>
-  <si>
     <t>邮箱</t>
   </si>
   <si>
-    <t>Uidentitytype</t>
-  </si>
-  <si>
     <t>证件类型</t>
   </si>
   <si>
-    <t>Uidentitynumber</t>
-  </si>
-  <si>
     <t>nvarchar(50)</t>
   </si>
   <si>
     <t>证件号码</t>
   </si>
   <si>
-    <t>Upassword</t>
-  </si>
-  <si>
     <t>密码</t>
   </si>
   <si>
@@ -202,24 +190,15 @@
     <t>(发布) 房屋编号集合，后端区分</t>
   </si>
   <si>
-    <t>Uname</t>
-  </si>
-  <si>
     <t>用户名</t>
   </si>
   <si>
-    <t>Uphone</t>
-  </si>
-  <si>
     <t>varchar(15)</t>
   </si>
   <si>
     <t>用户手机号</t>
   </si>
   <si>
-    <t>Uhead</t>
-  </si>
-  <si>
     <t>头像路径</t>
   </si>
   <si>
@@ -230,9 +209,6 @@
   </si>
   <si>
     <t xml:space="preserve"> ADidentitytype</t>
-  </si>
-  <si>
-    <t>nvarchar(10)</t>
   </si>
   <si>
     <t xml:space="preserve"> ADidentitynumber</t>
@@ -271,6 +247,46 @@
   </si>
   <si>
     <t>Hstructure</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uidentitytype</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uidentitynumber</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upassword</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hinterestid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hleaseid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uname</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uphone</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uhead</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uemail</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -278,7 +294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +349,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -444,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -477,6 +500,18 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,16 +524,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -833,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.45"/>
@@ -849,92 +878,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="2:6" ht="16.899999999999999" x14ac:dyDescent="0.45">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.45">
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.45">
       <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="2:6" ht="15" x14ac:dyDescent="0.45">
       <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="2:6" ht="15" x14ac:dyDescent="0.45">
       <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8" s="6"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="20" t="s">
-        <v>77</v>
+      <c r="B9" s="14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="14.65" x14ac:dyDescent="0.45">
@@ -1030,8 +1059,8 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="21" t="s">
-        <v>80</v>
+      <c r="B16" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>23</v>
@@ -1045,8 +1074,8 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B17" s="21" t="s">
-        <v>81</v>
+      <c r="B17" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>23</v>
@@ -1104,8 +1133,8 @@
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B22" s="20" t="s">
-        <v>76</v>
+      <c r="B22" s="14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="14.65" x14ac:dyDescent="0.45">
@@ -1182,15 +1211,15 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B29" s="20" t="s">
-        <v>78</v>
+      <c r="B29" s="14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="14.65" x14ac:dyDescent="0.45">
@@ -1226,8 +1255,8 @@
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B32" s="8" t="s">
-        <v>47</v>
+      <c r="B32" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>44</v>
@@ -1235,12 +1264,12 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="11" t="s">
-        <v>49</v>
+      <c r="B33" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>17</v>
@@ -1248,40 +1277,40 @@
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="11" t="s">
-        <v>51</v>
+      <c r="B34" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B35" s="8" t="s">
-        <v>54</v>
+      <c r="B35" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B36" s="8" t="s">
-        <v>56</v>
+      <c r="B36" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>34</v>
@@ -1289,12 +1318,12 @@
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B37" s="8" t="s">
-        <v>58</v>
+      <c r="B37" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>34</v>
@@ -1302,40 +1331,40 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="8" t="s">
-        <v>60</v>
+      <c r="B38" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="8" t="s">
-        <v>62</v>
+      <c r="B39" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="8" t="s">
-        <v>65</v>
+      <c r="B40" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>44</v>
@@ -1343,12 +1372,12 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B42" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="14.65" x14ac:dyDescent="0.45">
@@ -1370,7 +1399,7 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B44" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>17</v>
@@ -1385,7 +1414,7 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B45" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>44</v>
@@ -1393,53 +1422,53 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B46" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B47" s="11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B48" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B49" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>34</v>
@@ -1447,12 +1476,12 @@
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B50" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>34</v>
@@ -1460,40 +1489,40 @@
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>44</v>
@@ -1501,11 +1530,17 @@
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
@@ -1513,12 +1548,6 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
